--- a/loci_point/Output_excel/OC_Export Cable Outage_points.xlsx
+++ b/loci_point/Output_excel/OC_Export Cable Outage_points.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,31 +444,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="C2">
-        <v>4.028838</v>
+        <v>8.056101</v>
       </c>
       <c r="D2">
-        <v>-0.02283</v>
+        <v>57.108458</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>54.37793888973091</v>
+        <v>84.88263631567753</v>
       </c>
       <c r="H2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>13.26291192432461</v>
+        <v>17.68388256576615</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -479,34 +479,34 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="C3">
-        <v>3.970323</v>
+        <v>18.960233</v>
       </c>
       <c r="D3">
-        <v>-4.175866</v>
+        <v>97.491545</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>14.47619047619048</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>21.63117778133895</v>
+        <v>70.7355302630646</v>
       </c>
       <c r="H3">
-        <v>32.61904761904762</v>
+        <v>48</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>18.56807669405446</v>
+        <v>14.73656880480513</v>
       </c>
       <c r="K3">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,559 +514,1714 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3.811636</v>
+        <v>37.71783</v>
       </c>
       <c r="D4">
-        <v>14.858593</v>
+        <v>142.772094</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>63.66197723675813</v>
+      </c>
+      <c r="H4">
         <v>48</v>
       </c>
-      <c r="G4">
-        <v>5.305164769729846</v>
-      </c>
-      <c r="H4">
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>13.26291192432461</v>
+      </c>
+      <c r="K4">
         <v>10</v>
-      </c>
-      <c r="I4">
-        <v>14</v>
-      </c>
-      <c r="J4">
-        <v>14.85446135524356</v>
-      </c>
-      <c r="K4">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>6.774887</v>
+        <v>9.209853000000001</v>
       </c>
       <c r="D5">
-        <v>39.060746</v>
+        <v>-54.904784</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>28.57142857142857</v>
+        <v>16.76190476190476</v>
       </c>
       <c r="G5">
-        <v>-17.86433034704948</v>
+        <v>39.62031784377607</v>
       </c>
       <c r="H5">
-        <v>-47.14285714285715</v>
+        <v>44.80952380952381</v>
       </c>
       <c r="I5">
-        <v>18.57142857142857</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>-10.2855235331497</v>
+        <v>36.25195925982061</v>
       </c>
       <c r="K5">
-        <v>-27.14285714285714</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>49.515347</v>
+        <v>3.799543</v>
       </c>
       <c r="D6">
-        <v>70.890868</v>
+        <v>-4.179922</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>90</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="G6">
-        <v>-24.11438531695384</v>
+        <v>20.93645382339814</v>
       </c>
       <c r="H6">
-        <v>-100</v>
+        <v>31.57142857142857</v>
       </c>
       <c r="I6">
-        <v>22.85714285714286</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>-8.612280470340659</v>
+        <v>18.56807669405446</v>
       </c>
       <c r="K6">
-        <v>-35.71428571428572</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>25.934359</v>
+        <v>4.145913</v>
       </c>
       <c r="D7">
-        <v>48.361839</v>
+        <v>15.720611</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G7">
-        <v>-16.32358390686106</v>
+        <v>5.305164769729846</v>
       </c>
       <c r="H7">
-        <v>-80</v>
+        <v>10</v>
       </c>
       <c r="I7">
-        <v>15.14285714285714</v>
+        <v>14</v>
       </c>
       <c r="J7">
-        <v>-6.995821674369026</v>
+        <v>14.85446135524356</v>
       </c>
       <c r="K7">
-        <v>-34.28571428571428</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B8">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>20.098393</v>
+        <v>5.372481</v>
       </c>
       <c r="D8">
-        <v>93.12752</v>
+        <v>30.190116</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>38.09523809523809</v>
+        <v>24.28571428571428</v>
       </c>
       <c r="G8">
-        <v>-12.77994874500747</v>
+        <v>-17.0523153312745</v>
       </c>
       <c r="H8">
-        <v>-81.9047619047619</v>
+        <v>-38.57142857142857</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>15.71428571428572</v>
       </c>
       <c r="J8">
-        <v>-10.92239805532615</v>
+        <v>-9.473508517374725</v>
       </c>
       <c r="K8">
-        <v>-70</v>
+        <v>-21.42857142857143</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>30.864993</v>
+        <v>7.460048</v>
       </c>
       <c r="D9">
-        <v>99.821881</v>
+        <v>43.271666</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>160</v>
+        <v>31.42857142857143</v>
       </c>
       <c r="G9">
-        <v>16.75315190441004</v>
+        <v>-20.02970372244942</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>-52.85714285714286</v>
       </c>
       <c r="I9">
-        <v>22.85714285714286</v>
+        <v>20</v>
       </c>
       <c r="J9">
-        <v>-3.656441883899016</v>
+        <v>-11.36821022084967</v>
       </c>
       <c r="K9">
-        <v>-26.19047619047619</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>39.362407</v>
+        <v>11.106821</v>
       </c>
       <c r="D10">
-        <v>161.028638</v>
+        <v>56.464261</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>13.83956026886047</v>
+        <v>-23.21009586756807</v>
       </c>
       <c r="H10">
-        <v>120</v>
+        <v>-70</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>24.28571428571428</v>
       </c>
       <c r="J10">
-        <v>-3.459890067215116</v>
+        <v>-12.78923649845588</v>
       </c>
       <c r="K10">
-        <v>-30</v>
+        <v>-38.57142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>63.294073</v>
+        <v>18.216467</v>
       </c>
       <c r="D11">
-        <v>183.981784</v>
+        <v>70.442106</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G11">
-        <v>-21.22065907891938</v>
+        <v>-20.63119632672717</v>
       </c>
       <c r="H11">
-        <v>-200</v>
+        <v>-70</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="J11">
-        <v>-21.22065907891938</v>
+        <v>-13.89447915881626</v>
       </c>
       <c r="K11">
-        <v>-200</v>
+        <v>-47.14285714285715</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>79.601461</v>
+        <v>33.669152</v>
       </c>
       <c r="D12">
-        <v>209.979451</v>
+        <v>83.20363500000001</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>59.04761904761905</v>
       </c>
       <c r="G12">
-        <v>-18.29367161975809</v>
+        <v>-21.59959941961437</v>
       </c>
       <c r="H12">
-        <v>-200</v>
+        <v>-81.42857142857143</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J12">
-        <v>-18.29367161975809</v>
+        <v>-13.26291192432461</v>
       </c>
       <c r="K12">
-        <v>-200</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B13">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>86.48325800000001</v>
+        <v>60.370708</v>
       </c>
       <c r="D13">
-        <v>255.138251</v>
+        <v>77.86878</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>29.42857142857143</v>
+        <v>90</v>
       </c>
       <c r="G13">
-        <v>-22.00298752422516</v>
+        <v>-24.11438531695384</v>
       </c>
       <c r="H13">
-        <v>-257.1428571428571</v>
+        <v>-100</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="J13">
-        <v>-17.11343474106402</v>
+        <v>-8.612280470340659</v>
       </c>
       <c r="K13">
-        <v>-200</v>
+        <v>-35.71428571428572</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>171.463854</v>
+        <v>55.345645</v>
       </c>
       <c r="D14">
-        <v>387.235937</v>
+        <v>47.663763</v>
       </c>
       <c r="E14">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>133.6666666666667</v>
+        <v>60</v>
       </c>
       <c r="G14">
-        <v>-35.3677651315323</v>
+        <v>-26.52582384864923</v>
       </c>
       <c r="H14">
-        <v>-466.6666666666667</v>
+        <v>-120</v>
       </c>
       <c r="I14">
-        <v>38.90476190476191</v>
+        <v>4.5</v>
       </c>
       <c r="J14">
-        <v>-20.93194262886605</v>
+        <v>-2.210485320720769</v>
       </c>
       <c r="K14">
-        <v>-276.1904761904762</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>279.629743</v>
+        <v>28.557951</v>
       </c>
       <c r="D15">
-        <v>458.83552</v>
+        <v>51.580821</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="G15">
-        <v>-34.41187958743684</v>
+        <v>-16.32358390686106</v>
       </c>
       <c r="H15">
-        <v>-480</v>
+        <v>-80</v>
       </c>
       <c r="I15">
-        <v>99.42857142857143</v>
+        <v>16.38095238095238</v>
       </c>
       <c r="J15">
-        <v>-22.39503274737953</v>
+        <v>-7.773135193743363</v>
       </c>
       <c r="K15">
-        <v>-312.3809523809524</v>
+        <v>-38.09523809523809</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>621.415854</v>
+        <v>17.515442</v>
       </c>
       <c r="D16">
-        <v>453.478906</v>
+        <v>74.231352</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>920</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>-31.05462304232104</v>
+        <v>-13.26291192432461</v>
       </c>
       <c r="H16">
-        <v>-480</v>
+        <v>-70</v>
       </c>
       <c r="I16">
-        <v>61.57142857142857</v>
+        <v>20.80952380952381</v>
       </c>
       <c r="J16">
-        <v>-13.43235679211505</v>
+        <v>-11.09753854892467</v>
       </c>
       <c r="K16">
-        <v>-207.6190476190476</v>
+        <v>-58.57142857142857</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="B17">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>852.28647</v>
+        <v>24.908953</v>
       </c>
       <c r="D17">
-        <v>380.922551</v>
+        <v>93.27041800000001</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>920</v>
+        <v>43.33333333333333</v>
       </c>
       <c r="G17">
-        <v>-29.61022197058518</v>
+        <v>-15.32603155699733</v>
       </c>
       <c r="H17">
-        <v>-480</v>
+        <v>-86.66666666666667</v>
       </c>
       <c r="I17">
-        <v>8.571428571428571</v>
+        <v>25</v>
       </c>
       <c r="J17">
-        <v>-3.760028186740975</v>
+        <v>-12.3787177960363</v>
       </c>
       <c r="K17">
-        <v>-60.95238095238095</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B18">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>1018.373991</v>
+        <v>28.657796</v>
       </c>
       <c r="D18">
-        <v>-452.207419</v>
+        <v>79.646438</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>27.61904761904762</v>
       </c>
       <c r="G18">
-        <v>67.72550769867888</v>
+        <v>-11.99977745534132</v>
       </c>
       <c r="H18">
-        <v>1200</v>
+        <v>-72.38095238095238</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>21.85714285714286</v>
       </c>
       <c r="J18">
-        <v>24.72518535031134</v>
+        <v>-10.18402165617783</v>
       </c>
       <c r="K18">
-        <v>438.0952380952381</v>
+        <v>-61.42857142857143</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
+        <v>94</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>20.144135</v>
+      </c>
+      <c r="D19">
+        <v>103.190013</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>51.19047619047619</v>
+      </c>
+      <c r="G19">
+        <v>-14.63749943468879</v>
+      </c>
+      <c r="H19">
+        <v>-93.80952380952381</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>-10.92239805532615</v>
+      </c>
+      <c r="K19">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>29.933729</v>
+      </c>
+      <c r="D20">
+        <v>108.62427</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>160</v>
+      </c>
+      <c r="G20">
+        <v>17.68388256576615</v>
+      </c>
+      <c r="H20">
+        <v>120</v>
+      </c>
+      <c r="I20">
+        <v>28</v>
+      </c>
+      <c r="J20">
+        <v>-4.420970641441538</v>
+      </c>
+      <c r="K20">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>32.440026</v>
+      </c>
+      <c r="D21">
+        <v>110.711543</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>160</v>
+      </c>
+      <c r="G21">
+        <v>16.75315190441004</v>
+      </c>
+      <c r="H21">
+        <v>120</v>
+      </c>
+      <c r="I21">
+        <v>28</v>
+      </c>
+      <c r="J21">
+        <v>-4.188287976102509</v>
+      </c>
+      <c r="K21">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1">
+        <v>112</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>22.383135</v>
+      </c>
+      <c r="D22">
+        <v>129.62793</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>160</v>
+      </c>
+      <c r="G22">
+        <v>15.91549430918953</v>
+      </c>
+      <c r="H22">
+        <v>120</v>
+      </c>
+      <c r="I22">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <v>-3.978873577297383</v>
+      </c>
+      <c r="K22">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1">
+        <v>118</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>24.07821</v>
+      </c>
+      <c r="D23">
+        <v>148.605006</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>160</v>
+      </c>
+      <c r="G23">
+        <v>15.15761362779956</v>
+      </c>
+      <c r="H23">
+        <v>120</v>
+      </c>
+      <c r="I23">
+        <v>28</v>
+      </c>
+      <c r="J23">
+        <v>-3.789403406949889</v>
+      </c>
+      <c r="K23">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1">
+        <v>124</v>
+      </c>
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>29.12651</v>
+      </c>
+      <c r="D24">
+        <v>167.067502</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>160</v>
+      </c>
+      <c r="G24">
+        <v>14.46863119017231</v>
+      </c>
+      <c r="H24">
+        <v>120</v>
+      </c>
+      <c r="I24">
+        <v>28</v>
+      </c>
+      <c r="J24">
+        <v>-3.617157797543077</v>
+      </c>
+      <c r="K24">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1">
+        <v>130</v>
+      </c>
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>37.399295</v>
+      </c>
+      <c r="D25">
+        <v>185.508029</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>160</v>
+      </c>
+      <c r="G25">
+        <v>13.83956026886047</v>
+      </c>
+      <c r="H25">
+        <v>120</v>
+      </c>
+      <c r="I25">
+        <v>28</v>
+      </c>
+      <c r="J25">
+        <v>-3.459890067215116</v>
+      </c>
+      <c r="K25">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1">
+        <v>136</v>
+      </c>
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>49.649167</v>
+      </c>
+      <c r="D26">
+        <v>202.864201</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>160</v>
+      </c>
+      <c r="G26">
+        <v>13.26291192432461</v>
+      </c>
+      <c r="H26">
+        <v>120</v>
+      </c>
+      <c r="I26">
+        <v>28</v>
+      </c>
+      <c r="J26">
+        <v>-3.315727981081154</v>
+      </c>
+      <c r="K26">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1">
+        <v>142</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>65.58884399999999</v>
+      </c>
+      <c r="D27">
+        <v>216.221682</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>-21.22065907891938</v>
+      </c>
+      <c r="H27">
+        <v>-200</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>-21.22065907891938</v>
+      </c>
+      <c r="K27">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1">
+        <v>148</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>80.950294</v>
+      </c>
+      <c r="D28">
+        <v>222.465168</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="G28">
+        <v>-22.34776368201216</v>
+      </c>
+      <c r="H28">
+        <v>-219.047619047619</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>-20.40447988357633</v>
+      </c>
+      <c r="K28">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1">
+        <v>154</v>
+      </c>
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>88.294635</v>
+      </c>
+      <c r="D29">
+        <v>224.470577</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="G29">
+        <v>-21.52006873082653</v>
+      </c>
+      <c r="H29">
+        <v>-219.047619047619</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>-19.64875840640683</v>
+      </c>
+      <c r="K29">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1">
+        <v>160</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>86.43553199999999</v>
+      </c>
+      <c r="D30">
+        <v>231.550765</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="G30">
+        <v>-20.75149484758273</v>
+      </c>
+      <c r="H30">
+        <v>-219.047619047619</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>-18.94701703474945</v>
+      </c>
+      <c r="K30">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1">
+        <v>166</v>
+      </c>
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>81.831084</v>
+      </c>
+      <c r="D31">
+        <v>248.866584</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>19.95238095238095</v>
+      </c>
+      <c r="G31">
+        <v>-21.77818049971201</v>
+      </c>
+      <c r="H31">
+        <v>-238.0952380952381</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>-18.29367161975809</v>
+      </c>
+      <c r="K31">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1">
+        <v>172</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>79.89660000000001</v>
+      </c>
+      <c r="D32">
+        <v>275.523088</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>38.90476190476191</v>
+      </c>
+      <c r="G32">
+        <v>-24.42059973367707</v>
+      </c>
+      <c r="H32">
+        <v>-276.1904761904762</v>
+      </c>
+      <c r="I32">
+        <v>10.47619047619048</v>
+      </c>
+      <c r="J32">
+        <v>-19.36806185774388</v>
+      </c>
+      <c r="K32">
+        <v>-219.047619047619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1">
+        <v>178</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>82.843523</v>
+      </c>
+      <c r="D33">
+        <v>309.776309</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>57.85714285714286</v>
+      </c>
+      <c r="G33">
+        <v>-26.89254030738631</v>
+      </c>
+      <c r="H33">
+        <v>-314.2857142857143</v>
+      </c>
+      <c r="I33">
+        <v>29.42857142857143</v>
+      </c>
+      <c r="J33">
+        <v>-22.00298752422516</v>
+      </c>
+      <c r="K33">
+        <v>-257.1428571428571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1">
+        <v>184</v>
+      </c>
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>91.844943</v>
+      </c>
+      <c r="D34">
+        <v>350.884755</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>76.80952380952381</v>
+      </c>
+      <c r="G34">
+        <v>-29.20998459523873</v>
+      </c>
+      <c r="H34">
+        <v>-352.3809523809524</v>
+      </c>
+      <c r="I34">
+        <v>38.90476190476191</v>
+      </c>
+      <c r="J34">
+        <v>-22.89431225032225</v>
+      </c>
+      <c r="K34">
+        <v>-276.1904761904762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1">
+        <v>190</v>
+      </c>
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>107.949336</v>
+      </c>
+      <c r="D35">
+        <v>399.513516</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>105.2380952380952</v>
+      </c>
+      <c r="G35">
+        <v>-32.91804979774651</v>
+      </c>
+      <c r="H35">
+        <v>-409.5238095238095</v>
+      </c>
+      <c r="I35">
+        <v>57.85714285714286</v>
+      </c>
+      <c r="J35">
+        <v>-25.26268937966593</v>
+      </c>
+      <c r="K35">
+        <v>-314.2857142857143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1">
+        <v>196</v>
+      </c>
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>133.699911</v>
+      </c>
+      <c r="D36">
+        <v>456.971037</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>143.1428571428571</v>
+      </c>
+      <c r="G36">
+        <v>-37.8940340694989</v>
+      </c>
+      <c r="H36">
+        <v>-485.7142857142857</v>
+      </c>
+      <c r="I36">
+        <v>76.80952380952381</v>
+      </c>
+      <c r="J36">
+        <v>-27.49175020728352</v>
+      </c>
+      <c r="K36">
+        <v>-352.3809523809524</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1">
+        <v>202</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>174.827218</v>
+      </c>
+      <c r="D37">
+        <v>525.273423</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>200</v>
+      </c>
+      <c r="G37">
+        <v>-45.47284088339867</v>
+      </c>
+      <c r="H37">
+        <v>-600</v>
+      </c>
+      <c r="I37">
+        <v>95.76190476190476</v>
+      </c>
+      <c r="J37">
+        <v>-29.5934361304658</v>
+      </c>
+      <c r="K37">
+        <v>-390.4761904761905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1">
+        <v>208</v>
+      </c>
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>240.097723</v>
+      </c>
+      <c r="D38">
+        <v>603.384599</v>
+      </c>
+      <c r="E38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>200</v>
+      </c>
+      <c r="G38">
+        <v>-44.20970641441537</v>
+      </c>
+      <c r="H38">
+        <v>-600</v>
+      </c>
+      <c r="I38">
+        <v>114.7142857142857</v>
+      </c>
+      <c r="J38">
+        <v>-31.57836172458241</v>
+      </c>
+      <c r="K38">
+        <v>-428.5714285714286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1">
+        <v>214</v>
+      </c>
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>342.096318</v>
+      </c>
+      <c r="D39">
+        <v>685.319739</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>160</v>
+      </c>
+      <c r="G39">
+        <v>-34.41187958743684</v>
+      </c>
+      <c r="H39">
+        <v>-480</v>
+      </c>
+      <c r="I39">
+        <v>160</v>
+      </c>
+      <c r="J39">
+        <v>-34.41187958743684</v>
+      </c>
+      <c r="K39">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1">
+        <v>220</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>493.176188</v>
+      </c>
+      <c r="D40">
+        <v>752.992137</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>920</v>
+      </c>
+      <c r="G40">
+        <v>-33.50630380882007</v>
+      </c>
+      <c r="H40">
+        <v>-480</v>
+      </c>
+      <c r="I40">
+        <v>160</v>
+      </c>
+      <c r="J40">
+        <v>-33.50630380882007</v>
+      </c>
+      <c r="K40">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1">
+        <v>226</v>
+      </c>
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>690.018691</v>
+      </c>
+      <c r="D41">
+        <v>775.96163</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>920</v>
+      </c>
+      <c r="G41">
+        <v>-32.64716781372212</v>
+      </c>
+      <c r="H41">
+        <v>-480</v>
+      </c>
+      <c r="I41">
+        <v>160</v>
+      </c>
+      <c r="J41">
+        <v>-32.64716781372212</v>
+      </c>
+      <c r="K41">
+        <v>-480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1">
+        <v>232</v>
+      </c>
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>904.041589</v>
+      </c>
+      <c r="D42">
+        <v>737.480203</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>920</v>
+      </c>
+      <c r="G42">
+        <v>-31.83098861837907</v>
+      </c>
+      <c r="H42">
+        <v>-480</v>
+      </c>
+      <c r="I42">
+        <v>122.1428571428571</v>
+      </c>
+      <c r="J42">
+        <v>-24.88374903897094</v>
+      </c>
+      <c r="K42">
+        <v>-375.2380952380952</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1">
+        <v>238</v>
+      </c>
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>1124.398742</v>
+      </c>
+      <c r="D43">
+        <v>653.252713</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>920</v>
+      </c>
+      <c r="G43">
+        <v>-31.05462304232104</v>
+      </c>
+      <c r="H43">
+        <v>-480</v>
+      </c>
+      <c r="I43">
+        <v>69.14285714285714</v>
+      </c>
+      <c r="J43">
+        <v>-14.78791573443859</v>
+      </c>
+      <c r="K43">
+        <v>-228.5714285714286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1">
+        <v>244</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>1375.691381</v>
+      </c>
+      <c r="D44">
+        <v>506.948011</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>920</v>
+      </c>
+      <c r="G44">
+        <v>-30.31522725559912</v>
+      </c>
+      <c r="H44">
+        <v>-480</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>-2.526268937966593</v>
+      </c>
+      <c r="K44">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1">
+        <v>250</v>
+      </c>
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>1660.091689</v>
+      </c>
+      <c r="D45">
+        <v>209.545161</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>1040</v>
+      </c>
+      <c r="G45">
+        <v>27.14270347303642</v>
+      </c>
+      <c r="H45">
+        <v>440</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>-2.467518497548765</v>
+      </c>
+      <c r="K45">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1">
+        <v>256</v>
+      </c>
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>1781.714847</v>
+      </c>
+      <c r="D46">
+        <v>-347.581285</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>1040</v>
+      </c>
+      <c r="G46">
+        <v>26.52582384864923</v>
+      </c>
+      <c r="H46">
+        <v>440</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>20.32498191000395</v>
+      </c>
+      <c r="K46">
+        <v>337.1428571428571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1">
+        <v>262</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>1482.699235</v>
+      </c>
+      <c r="D47">
+        <v>-890.802109</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>1400</v>
+      </c>
+      <c r="G47">
+        <v>153.2603155699733</v>
+      </c>
+      <c r="H47">
+        <v>2600</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>53.89373734328731</v>
+      </c>
+      <c r="K47">
+        <v>914.2857142857142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1">
+        <v>268</v>
+      </c>
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>1004.663796</v>
+      </c>
+      <c r="D48">
+        <v>-1083.832099</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <v>69.19780134430232</v>
+      </c>
+      <c r="H48">
+        <v>1200</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>63.70591234872279</v>
+      </c>
+      <c r="K48">
+        <v>1104.761904761905</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1">
+        <v>274</v>
+      </c>
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>646.374374</v>
+      </c>
+      <c r="D49">
+        <v>-1033.091558</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
+      <c r="G49">
+        <v>67.72550769867888</v>
+      </c>
+      <c r="H49">
+        <v>1200</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>56.97542711158699</v>
+      </c>
+      <c r="K49">
+        <v>1009.52380952381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1">
+        <v>280</v>
+      </c>
+      <c r="B50">
         <v>48</v>
       </c>
-      <c r="B19">
+      <c r="C50">
+        <v>431.73202</v>
+      </c>
+      <c r="D50">
+        <v>-917.462338</v>
+      </c>
+      <c r="E50">
+        <v>9</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50">
+        <v>61.05149933419267</v>
+      </c>
+      <c r="H50">
+        <v>1104.761904761905</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>50.52537875933186</v>
+      </c>
+      <c r="K50">
+        <v>914.2857142857142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1">
+        <v>286</v>
+      </c>
+      <c r="B51">
         <v>49</v>
       </c>
-      <c r="C19">
-        <v>651.757511</v>
-      </c>
-      <c r="D19">
-        <v>-626.457195</v>
-      </c>
-      <c r="E19">
+      <c r="C51">
+        <v>306.422616</v>
+      </c>
+      <c r="D51">
+        <v>-805.523883</v>
+      </c>
+      <c r="E51">
         <v>9</v>
       </c>
-      <c r="F19">
+      <c r="F51">
         <v>3</v>
       </c>
-      <c r="G19">
-        <v>64.9612012619981</v>
-      </c>
-      <c r="H19">
-        <v>1200</v>
-      </c>
-      <c r="I19">
+      <c r="G51">
+        <v>49.49424858056998</v>
+      </c>
+      <c r="H51">
+        <v>914.2857142857142</v>
+      </c>
+      <c r="I51">
         <v>3</v>
       </c>
-      <c r="J19">
-        <v>34.02729589914185</v>
-      </c>
-      <c r="K19">
-        <v>628.5714285714286</v>
+      <c r="J51">
+        <v>44.33859768676061</v>
+      </c>
+      <c r="K51">
+        <v>819.047619047619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1">
+        <v>292</v>
+      </c>
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>230.860986</v>
+      </c>
+      <c r="D52">
+        <v>-712.072289</v>
+      </c>
+      <c r="E52">
+        <v>9</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>43.45182573302539</v>
+      </c>
+      <c r="H52">
+        <v>819.047619047619</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>38.39928785709221</v>
+      </c>
+      <c r="K52">
+        <v>723.8095238095239</v>
       </c>
     </row>
   </sheetData>
